--- a/01_Input/00_CO Validation/Togo - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Togo - Energy Projects.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27018"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="228" documentId="11_B76429B6AEC9EAC4ECA8FFB6B29D8941586C3419" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{896CFD8B-8D9C-4936-907D-F61EDD4E79F0}"/>
+  <xr:revisionPtr revIDLastSave="235" documentId="11_B76429B6AEC9EAC4ECA8FFB6B29D8941586C3419" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22D3EEC1-F3C6-434E-A259-6A362EFF335F}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,6 +15,9 @@
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="79">
   <si>
     <t>Project ID</t>
   </si>
@@ -141,21 +144,27 @@
     <t xml:space="preserve">Nombre de ménages dans les villages ciblés, y compris les ménages dirigés par les femmes, ayant accès à l’énergie solaire </t>
   </si>
   <si>
+    <t>1500 HH</t>
+  </si>
+  <si>
     <t>Nombre de ménages dirigés par les hommes: 1200, nombre de ménages dirigés par les femmes: 300</t>
   </si>
   <si>
     <t>Environ 50 000 personnes au Total</t>
   </si>
   <si>
+    <t>Medium Enterprises</t>
+  </si>
+  <si>
+    <t>Nombre de nouvelles entreprises créées utilisant l’énergie solaire dans les villages ciblés par le projet</t>
+  </si>
+  <si>
+    <t>5 entreprises par village bénéficiaire, représentant 500 personnes au moins</t>
+  </si>
+  <si>
     <t>Small Enterprises</t>
   </si>
   <si>
-    <t>Nombre de nouvelles entreprises créées utilisant l’énergie solaire dans les villages ciblés par le projet</t>
-  </si>
-  <si>
-    <t>5 entreprises par village bénéficiaire, représentant 500 personnes au moins</t>
-  </si>
-  <si>
     <t>Please provide justification and numeric values in Notes. # of people per village, or per enterprise. Target values should be quantitative, with the necessary conversion factor to # of people listed in in the Notes</t>
   </si>
   <si>
@@ -220,9 +229,6 @@
   </si>
   <si>
     <t>Market Development</t>
-  </si>
-  <si>
-    <t>Medium Enterprises</t>
   </si>
   <si>
     <t>Support for the development of medium enterprises in the energy transition market</t>
@@ -705,6 +711,87 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -771,89 +858,8 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="8" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1162,8 +1168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C62A698C-F453-496F-9195-DAE7689D9E2E}">
   <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1180,61 +1186,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="79" t="s">
+      <c r="C1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="79" t="s">
+      <c r="D1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="79" t="s">
+      <c r="E1" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="79" t="s">
+      <c r="F1" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="80" t="s">
+      <c r="G1" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="81" t="s">
+      <c r="H1" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="82" t="s">
+      <c r="I1" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="83" t="s">
+      <c r="J1" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="83" t="s">
+      <c r="K1" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="83" t="s">
+      <c r="L1" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="83" t="s">
+      <c r="M1" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="83" t="s">
+      <c r="N1" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="83" t="s">
+      <c r="O1" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="83" t="s">
+      <c r="P1" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="83" t="s">
+      <c r="Q1" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="83" t="s">
+      <c r="R1" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="83" t="s">
+      <c r="S1" s="61" t="s">
         <v>18</v>
       </c>
       <c r="T1" s="49"/>
@@ -1255,40 +1261,40 @@
       <c r="E2" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="84" t="s">
+      <c r="F2" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="85">
+      <c r="G2" s="63">
         <v>0</v>
       </c>
-      <c r="H2" s="86" t="s">
+      <c r="H2" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="87" t="s">
+      <c r="I2" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="88" t="s">
+      <c r="J2" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="89">
+      <c r="K2" s="66">
         <v>0.24</v>
       </c>
-      <c r="L2" s="88" t="s">
+      <c r="L2" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="88"/>
-      <c r="N2" s="88" t="s">
+      <c r="M2" s="65"/>
+      <c r="N2" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="103" t="s">
+      <c r="O2" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="103" t="s">
+      <c r="P2" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="88"/>
-      <c r="R2" s="88"/>
-      <c r="S2" s="88"/>
+      <c r="Q2" s="65"/>
+      <c r="R2" s="65"/>
+      <c r="S2" s="65"/>
     </row>
     <row r="3" spans="1:20" ht="45.75">
       <c r="A3" s="41"/>
@@ -1296,40 +1302,40 @@
       <c r="C3" s="47"/>
       <c r="D3" s="41"/>
       <c r="E3" s="41"/>
-      <c r="F3" s="90" t="s">
+      <c r="F3" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="91">
+      <c r="G3" s="68">
         <v>0</v>
       </c>
-      <c r="H3" s="92">
+      <c r="H3" s="69">
         <v>460</v>
       </c>
-      <c r="I3" s="87" t="s">
+      <c r="I3" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="88" t="s">
+      <c r="J3" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88" t="s">
+      <c r="K3" s="65"/>
+      <c r="L3" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="93" t="s">
+      <c r="M3" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="N3" s="88" t="s">
+      <c r="N3" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="O3" s="103" t="s">
+      <c r="O3" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="P3" s="103" t="s">
+      <c r="P3" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="88"/>
-      <c r="R3" s="88"/>
-      <c r="S3" s="88"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
     </row>
     <row r="4" spans="1:20" ht="45.75">
       <c r="A4" s="42"/>
@@ -1337,40 +1343,40 @@
       <c r="C4" s="48"/>
       <c r="D4" s="42"/>
       <c r="E4" s="42"/>
-      <c r="F4" s="90" t="s">
+      <c r="F4" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="91">
+      <c r="G4" s="68">
         <v>0</v>
       </c>
-      <c r="H4" s="92">
+      <c r="H4" s="69">
         <v>460</v>
       </c>
-      <c r="I4" s="87" t="s">
+      <c r="I4" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="88" t="s">
+      <c r="J4" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88" t="s">
+      <c r="K4" s="65"/>
+      <c r="L4" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="93" t="s">
+      <c r="M4" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="88" t="s">
+      <c r="N4" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="103" t="s">
+      <c r="O4" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="P4" s="103" t="s">
+      <c r="P4" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="88"/>
-      <c r="R4" s="88"/>
-      <c r="S4" s="88"/>
+      <c r="Q4" s="65"/>
+      <c r="R4" s="65"/>
+      <c r="S4" s="65"/>
     </row>
     <row r="5" spans="1:20" ht="49.5" customHeight="1">
       <c r="A5" s="31">
@@ -1388,123 +1394,121 @@
       <c r="E5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="94" t="s">
+      <c r="F5" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="95">
+      <c r="G5" s="72">
         <v>0</v>
       </c>
-      <c r="H5" s="96">
-        <v>1500</v>
-      </c>
-      <c r="I5" s="97" t="s">
+      <c r="H5" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="J5" s="88" t="s">
+      <c r="I5" s="74" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="88"/>
-      <c r="L5" s="88" t="s">
+      <c r="K5" s="65"/>
+      <c r="L5" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88" t="s">
+      <c r="M5" s="65"/>
+      <c r="N5" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="O5" s="103" t="s">
+      <c r="O5" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="P5" s="103" t="s">
+      <c r="P5" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="Q5" s="88"/>
-      <c r="R5" s="88"/>
-      <c r="S5" s="88"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="65"/>
     </row>
     <row r="6" spans="1:20" ht="30.75">
       <c r="A6" s="32"/>
       <c r="B6" s="35"/>
       <c r="C6" s="38"/>
       <c r="D6" s="32"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="98" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="99">
+      <c r="E6" s="56"/>
+      <c r="F6" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="76">
         <v>10</v>
       </c>
-      <c r="H6" s="100">
+      <c r="H6" s="77">
         <v>50000</v>
       </c>
-      <c r="I6" s="101" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" s="88" t="s">
+      <c r="I6" s="78" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="K6" s="88"/>
-      <c r="L6" s="88" t="s">
+      <c r="K6" s="65"/>
+      <c r="L6" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="M6" s="88"/>
-      <c r="N6" s="88" t="s">
+      <c r="M6" s="65"/>
+      <c r="N6" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="O6" s="103" t="s">
+      <c r="O6" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="P6" s="103" t="s">
+      <c r="P6" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="Q6" s="88"/>
-      <c r="R6" s="88"/>
-      <c r="S6" s="88"/>
+      <c r="Q6" s="65"/>
+      <c r="R6" s="65"/>
+      <c r="S6" s="65"/>
     </row>
     <row r="7" spans="1:20" ht="45.75">
       <c r="A7" s="33"/>
       <c r="B7" s="36"/>
       <c r="C7" s="39"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="102" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="101">
+      <c r="F7" s="79" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="78">
         <v>0</v>
       </c>
-      <c r="H7" s="77">
-        <v>50</v>
-      </c>
-      <c r="I7" s="97" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" s="88" t="s">
+      <c r="H7" s="55">
+        <v>250</v>
+      </c>
+      <c r="I7" s="74" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="88"/>
-      <c r="L7" s="88" t="s">
+      <c r="K7" s="65"/>
+      <c r="L7" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="M7" s="88"/>
-      <c r="N7" s="88" t="s">
+      <c r="M7" s="65"/>
+      <c r="N7" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="O7" s="103" t="s">
+      <c r="O7" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="P7" s="103" t="s">
+      <c r="P7" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="Q7" s="88"/>
-      <c r="R7" s="88"/>
-      <c r="S7" s="88"/>
+      <c r="Q7" s="65"/>
+      <c r="R7" s="65"/>
+      <c r="S7" s="65"/>
     </row>
     <row r="10" spans="1:20">
-      <c r="C10" s="27" t="s">
-        <v>41</v>
-      </c>
+      <c r="C10" s="27"/>
     </row>
   </sheetData>
   <dataValidations count="5">
@@ -1625,19 +1629,19 @@
       <c r="T1" s="49"/>
     </row>
     <row r="2" spans="1:20" ht="45.75">
-      <c r="A2" s="56">
+      <c r="A2" s="83">
         <v>117913</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="56">
+      <c r="D2" s="83">
         <v>3459600</v>
       </c>
-      <c r="E2" s="56" t="s">
+      <c r="E2" s="83" t="s">
         <v>21</v>
       </c>
       <c r="F2" s="23" t="s">
@@ -1669,11 +1673,11 @@
       </c>
     </row>
     <row r="3" spans="1:20" ht="45.75">
-      <c r="A3" s="57"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
+      <c r="A3" s="84"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
       <c r="F3" s="9" t="s">
         <v>29</v>
       </c>
@@ -1703,11 +1707,11 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="45.75">
-      <c r="A4" s="58"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
+      <c r="A4" s="85"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
       <c r="F4" s="9" t="s">
         <v>32</v>
       </c>
@@ -1748,19 +1752,19 @@
       <c r="I5" s="17"/>
     </row>
     <row r="6" spans="1:20" ht="49.5" customHeight="1">
-      <c r="A6" s="54">
+      <c r="A6" s="81">
         <v>134793</v>
       </c>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="54">
+      <c r="D6" s="81">
         <v>1431552</v>
       </c>
-      <c r="E6" s="54" t="s">
+      <c r="E6" s="81" t="s">
         <v>21</v>
       </c>
       <c r="F6" s="22" t="s">
@@ -1773,7 +1777,7 @@
         <v>1500</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J6" t="s">
         <v>25</v>
@@ -1789,13 +1793,13 @@
       </c>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" s="65"/>
-      <c r="B7" s="67"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="55"/>
+      <c r="A7" s="92"/>
+      <c r="B7" s="94"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="82"/>
       <c r="F7" s="52" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G7" s="14">
         <v>10</v>
@@ -1804,7 +1808,7 @@
         <v>50000</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J7" t="s">
         <v>25</v>
@@ -1820,15 +1824,15 @@
       </c>
     </row>
     <row r="8" spans="1:20" ht="45.75">
-      <c r="A8" s="55"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="55"/>
+      <c r="A8" s="82"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="82"/>
       <c r="E8" s="53" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G8" s="12">
         <v>0</v>
@@ -1837,7 +1841,7 @@
         <v>50</v>
       </c>
       <c r="I8" s="25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J8" t="s">
         <v>25</v>
@@ -1854,7 +1858,7 @@
     </row>
     <row r="11" spans="1:20">
       <c r="C11" s="27" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1956,19 +1960,19 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="45.75">
-      <c r="A2" s="56">
+      <c r="A2" s="83">
         <v>117913</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="56">
+      <c r="D2" s="83">
         <v>3459600</v>
       </c>
-      <c r="E2" s="56" t="s">
+      <c r="E2" s="83" t="s">
         <v>21</v>
       </c>
       <c r="F2" s="23" t="s">
@@ -1985,11 +1989,11 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="45.75">
-      <c r="A3" s="57"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
+      <c r="A3" s="84"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
       <c r="F3" s="9" t="s">
         <v>29</v>
       </c>
@@ -2005,11 +2009,11 @@
       <c r="J3" s="26"/>
     </row>
     <row r="4" spans="1:10" ht="45.75">
-      <c r="A4" s="58"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
+      <c r="A4" s="85"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
       <c r="F4" s="9" t="s">
         <v>32</v>
       </c>
@@ -2037,19 +2041,19 @@
       <c r="J5" s="26"/>
     </row>
     <row r="6" spans="1:10" ht="49.5" customHeight="1">
-      <c r="A6" s="54">
+      <c r="A6" s="81">
         <v>134793</v>
       </c>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="54">
+      <c r="D6" s="81">
         <v>1431552</v>
       </c>
-      <c r="E6" s="54" t="s">
+      <c r="E6" s="81" t="s">
         <v>21</v>
       </c>
       <c r="F6" s="22" t="s">
@@ -2062,18 +2066,18 @@
         <v>1500</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J6" s="26"/>
     </row>
     <row r="7" spans="1:10" ht="37.5">
-      <c r="A7" s="65"/>
-      <c r="B7" s="67"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
+      <c r="A7" s="92"/>
+      <c r="B7" s="94"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
       <c r="F7" s="10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G7" s="14">
         <v>10</v>
@@ -2082,18 +2086,18 @@
         <v>50</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J7" s="26"/>
     </row>
     <row r="8" spans="1:10" ht="45.75">
-      <c r="A8" s="55"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
+      <c r="A8" s="82"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
       <c r="F8" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G8" s="12">
         <v>0</v>
@@ -2102,13 +2106,13 @@
         <v>50</v>
       </c>
       <c r="I8" s="25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J8" s="26"/>
     </row>
     <row r="11" spans="1:10">
       <c r="C11" s="27" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -2159,160 +2163,160 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="72" t="s">
-        <v>45</v>
+      <c r="A2" s="99" t="s">
+        <v>47</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="72"/>
+      <c r="A3" s="99"/>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="72"/>
+      <c r="A4" s="99"/>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="73" t="s">
-        <v>51</v>
+      <c r="A5" s="100" t="s">
+        <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="73"/>
+      <c r="A6" s="100"/>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="73"/>
+      <c r="A7" s="100"/>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="73"/>
+      <c r="A8" s="100"/>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="73"/>
+      <c r="A9" s="100"/>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="74" t="s">
-        <v>62</v>
+      <c r="A10" s="101" t="s">
+        <v>64</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="74"/>
+      <c r="A11" s="101"/>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="75" t="s">
-        <v>66</v>
+      <c r="A12" s="102" t="s">
+        <v>67</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="75"/>
+      <c r="A13" s="102"/>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="75"/>
+      <c r="A14" s="102"/>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2327,15 +2331,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
@@ -2383,7 +2378,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
@@ -2632,14 +2627,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0451E445-12D4-4325-B162-D7FA49EAECE6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{728D47DB-CBAC-4C36-A531-450D68A66E30}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{728D47DB-CBAC-4C36-A531-450D68A66E30}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D78A0F9A-F97D-42D3-9953-2DB2087995FA}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D78A0F9A-F97D-42D3-9953-2DB2087995FA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0451E445-12D4-4325-B162-D7FA49EAECE6}"/>
 </file>